--- a/.gitbook/assets/Gry.xlsx
+++ b/.gitbook/assets/Gry.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\cs-htiew-gitbook\.gitbook\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FA028A-AFF5-4A17-AED9-DB2B29516F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06557D0D-E6CF-4437-8C59-2CA334AFD1AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{E41C845A-1096-4782-A7AA-EC50BE25EF91}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E41C845A-1096-4782-A7AA-EC50BE25EF91}"/>
   </bookViews>
   <sheets>
     <sheet name="Dane" sheetId="3" r:id="rId1"/>
@@ -15772,8 +15772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1144AD61-E121-48CB-85B0-A02A6FA68EC5}">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15783,6 +15783,8 @@
     <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -30613,7 +30615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78B49BCF-4C0A-4898-A823-EA301084341C}">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
